--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2588786.319917114</v>
+        <v>-2591696.302423114</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16134020.78579172</v>
+        <v>16134020.78579173</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.8828848556859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>92.72679982914678</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.202622571757</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>57.88499024809285</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>101.1233802419829</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415049</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>177.2636342461146</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="I5" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>148.6865099692908</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>65.395245261935</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>22.85181384629943</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.8487945594938</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>130.3804567168251</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>301.3046595546143</v>
       </c>
       <c r="G8" t="n">
-        <v>11.82154091467858</v>
+        <v>11.82154091467857</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.26705763130758</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>253.4640902037291</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.36767350135294</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4809127745796</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.24660711471785</v>
+        <v>94.24660711471782</v>
       </c>
       <c r="I9" t="n">
-        <v>25.26749052354852</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.0861115167659</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6571259178395</v>
+        <v>156.617631595909</v>
       </c>
       <c r="U9" t="n">
         <v>225.8188423185649</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4294344079671</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.64405305251682</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>108.4905595070186</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.0806520577907</v>
+        <v>107.0806520577906</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8031283088588</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>182.41428721015</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>177.1006680594869</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>117.8112368377021</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>163.5188249813913</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8784673763438</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.29503437033</v>
+        <v>160.3243999861102</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.612732683901</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898974</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545325</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308914</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808183</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972043</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317881</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445511</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600549</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898974</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545293</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308945</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652568</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808183</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972043</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317881</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445511</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969973</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600549</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541837</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.2016801857458</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="C2" t="n">
-        <v>502.2016801857458</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="D2" t="n">
-        <v>259.9714295377611</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="E2" t="n">
-        <v>259.9714295377611</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="F2" t="n">
-        <v>259.9714295377611</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="G2" t="n">
         <v>138.8776064512096</v>
@@ -4325,55 +4325,55 @@
         <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
         <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192954</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859556</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948968</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660194</v>
+        <v>865.5683583951627</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337305</v>
+        <v>865.5683583951627</v>
       </c>
       <c r="U2" t="n">
-        <v>744.4319308337305</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="V2" t="n">
-        <v>744.4319308337305</v>
+        <v>623.3381077471784</v>
       </c>
       <c r="W2" t="n">
-        <v>744.4319308337305</v>
+        <v>381.107857099194</v>
       </c>
       <c r="X2" t="n">
-        <v>744.4319308337305</v>
+        <v>381.107857099194</v>
       </c>
       <c r="Y2" t="n">
-        <v>744.4319308337305</v>
+        <v>138.8776064512096</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490.3165177786809</v>
+        <v>224.3269478664594</v>
       </c>
       <c r="C3" t="n">
-        <v>315.8634884975539</v>
+        <v>224.3269478664594</v>
       </c>
       <c r="D3" t="n">
-        <v>315.8634884975539</v>
+        <v>224.3269478664594</v>
       </c>
       <c r="E3" t="n">
-        <v>156.6260334920985</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="F3" t="n">
-        <v>156.6260334920985</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132039</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132039</v>
+        <v>65.0894928610039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>27.38888317617806</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>94.996702839535</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>232.2263008552289</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153187</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679832</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367437</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640425</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660194</v>
+        <v>824.6836889581826</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660194</v>
+        <v>627.6943931182702</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660194</v>
+        <v>627.6943931182702</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660194</v>
+        <v>392.5422848865275</v>
       </c>
       <c r="W3" t="n">
-        <v>717.0015419180347</v>
+        <v>392.5422848865275</v>
       </c>
       <c r="X3" t="n">
-        <v>658.531854798749</v>
+        <v>392.5422848865275</v>
       </c>
       <c r="Y3" t="n">
-        <v>658.531854798749</v>
+        <v>392.5422848865275</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.5070811642637</v>
+        <v>268.2194118764862</v>
       </c>
       <c r="C4" t="n">
-        <v>161.5708982363568</v>
+        <v>268.2194118764862</v>
       </c>
       <c r="D4" t="n">
-        <v>161.5708982363568</v>
+        <v>268.2194118764862</v>
       </c>
       <c r="E4" t="n">
-        <v>161.5708982363568</v>
+        <v>268.2194118764862</v>
       </c>
       <c r="F4" t="n">
-        <v>161.5708982363568</v>
+        <v>121.3294643785759</v>
       </c>
       <c r="G4" t="n">
-        <v>161.5708982363568</v>
+        <v>121.3294643785759</v>
       </c>
       <c r="H4" t="n">
-        <v>161.5708982363568</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030905</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916894</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.231792566018</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184247</v>
+        <v>959.231792566018</v>
       </c>
       <c r="T4" t="n">
-        <v>751.7915078184247</v>
+        <v>959.231792566018</v>
       </c>
       <c r="U4" t="n">
-        <v>751.7915078184247</v>
+        <v>959.231792566018</v>
       </c>
       <c r="V4" t="n">
-        <v>751.7915078184247</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="W4" t="n">
-        <v>509.5612571704401</v>
+        <v>717.0015419180337</v>
       </c>
       <c r="X4" t="n">
-        <v>330.5070811642637</v>
+        <v>489.0119910200164</v>
       </c>
       <c r="Y4" t="n">
-        <v>330.5070811642637</v>
+        <v>268.2194118764862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>423.8554133656</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>416.9099126163966</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4571,10 +4571,10 @@
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991316</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411526</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>690.233069932778</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>690.233069932778</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
         <v>65.46256898749988</v>
@@ -4647,19 +4647,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>678.0833756466777</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>442.931267414935</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>419.8486271661477</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>211.9971269606149</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>211.9971269606149</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2346475167379</v>
+        <v>520.7170450051586</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2346475167379</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2346475167379</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
         <v>36.32155393434483</v>
@@ -4726,10 +4726,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4753,22 +4753,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>923.1580889789285</v>
       </c>
       <c r="V7" t="n">
-        <v>574.701995558152</v>
+        <v>923.1580889789285</v>
       </c>
       <c r="W7" t="n">
-        <v>308.3243389909741</v>
+        <v>923.1580889789285</v>
       </c>
       <c r="X7" t="n">
-        <v>308.3243389909741</v>
+        <v>923.1580889789285</v>
       </c>
       <c r="Y7" t="n">
-        <v>308.3243389909741</v>
+        <v>702.3655098353984</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1288.587097844226</v>
+        <v>1115.608720401721</v>
       </c>
       <c r="C8" t="n">
-        <v>1288.587097844226</v>
+        <v>746.6462034613091</v>
       </c>
       <c r="D8" t="n">
-        <v>930.3213992374754</v>
+        <v>746.6462034613091</v>
       </c>
       <c r="E8" t="n">
-        <v>544.5331466392312</v>
+        <v>360.8579508630649</v>
       </c>
       <c r="F8" t="n">
-        <v>133.5472418496236</v>
+        <v>56.50980989880797</v>
       </c>
       <c r="G8" t="n">
-        <v>121.6062914307564</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="H8" t="n">
-        <v>121.6062914307564</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="I8" t="n">
-        <v>44.56885947994062</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="J8" t="n">
-        <v>157.8410018668341</v>
+        <v>157.8410018668344</v>
       </c>
       <c r="K8" t="n">
-        <v>378.3450987769657</v>
+        <v>378.3450987769665</v>
       </c>
       <c r="L8" t="n">
-        <v>688.8016911579477</v>
+        <v>688.8016911579498</v>
       </c>
       <c r="M8" t="n">
-        <v>1065.913906207152</v>
+        <v>1065.913906207155</v>
       </c>
       <c r="N8" t="n">
-        <v>1453.741999533367</v>
+        <v>1453.741999533371</v>
       </c>
       <c r="O8" t="n">
-        <v>1806.621809303907</v>
+        <v>1806.621809303912</v>
       </c>
       <c r="P8" t="n">
-        <v>2073.295561921168</v>
+        <v>2073.295561921173</v>
       </c>
       <c r="Q8" t="n">
-        <v>2225.383697639132</v>
+        <v>2225.383697639137</v>
       </c>
       <c r="R8" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="S8" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.38008665346</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="W8" t="n">
-        <v>1544.611431383346</v>
+        <v>1875.674318726922</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.587097844226</v>
+        <v>1502.208560465843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1288.587097844226</v>
+        <v>1502.208560465843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756.8459997084958</v>
+        <v>768.926904446059</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8459997084958</v>
+        <v>594.473875164932</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9115900472445</v>
+        <v>445.5394655036808</v>
       </c>
       <c r="E9" t="n">
-        <v>448.674135041789</v>
+        <v>286.3020104982253</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1395770686739</v>
+        <v>139.7674525251102</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2901702256642</v>
+        <v>139.7674525251102</v>
       </c>
       <c r="H9" t="n">
-        <v>70.09157718049468</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="I9" t="n">
-        <v>44.56885947994062</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="J9" t="n">
-        <v>93.21512453672122</v>
+        <v>93.21512453672153</v>
       </c>
       <c r="K9" t="n">
-        <v>254.5141645067826</v>
+        <v>516.334749149236</v>
       </c>
       <c r="L9" t="n">
-        <v>517.7231704395638</v>
+        <v>779.5437550820175</v>
       </c>
       <c r="M9" t="n">
-        <v>844.2325337686182</v>
+        <v>1106.053118411072</v>
       </c>
       <c r="N9" t="n">
-        <v>1193.792273301807</v>
+        <v>1455.612857944262</v>
       </c>
       <c r="O9" t="n">
-        <v>1491.351347737626</v>
+        <v>1753.171932380081</v>
       </c>
       <c r="P9" t="n">
-        <v>2026.113812954028</v>
+        <v>2131.642712160398</v>
       </c>
       <c r="Q9" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="R9" t="n">
-        <v>2228.442973997031</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="S9" t="n">
-        <v>2089.972154283126</v>
+        <v>2228.442973997036</v>
       </c>
       <c r="T9" t="n">
-        <v>1895.368996790359</v>
+        <v>2070.243346122381</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.269156064536</v>
+        <v>1842.143505396558</v>
       </c>
       <c r="V9" t="n">
-        <v>1432.117047832793</v>
+        <v>1606.991397164815</v>
       </c>
       <c r="W9" t="n">
-        <v>1177.879691104592</v>
+        <v>1352.754040436614</v>
       </c>
       <c r="X9" t="n">
-        <v>970.0281908990587</v>
+        <v>1144.902540231081</v>
       </c>
       <c r="Y9" t="n">
-        <v>762.2678921341048</v>
+        <v>937.142241466127</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.610628928267</v>
+        <v>768.01114664495</v>
       </c>
       <c r="C10" t="n">
-        <v>851.6744460003603</v>
+        <v>599.0749637170431</v>
       </c>
       <c r="D10" t="n">
-        <v>701.5578065880245</v>
+        <v>448.9583243047074</v>
       </c>
       <c r="E10" t="n">
-        <v>553.6447130056314</v>
+        <v>301.0452307223143</v>
       </c>
       <c r="F10" t="n">
-        <v>406.754765507721</v>
+        <v>154.1552832244039</v>
       </c>
       <c r="G10" t="n">
-        <v>238.6442257016936</v>
+        <v>154.1552832244039</v>
       </c>
       <c r="H10" t="n">
         <v>154.1552832244039</v>
       </c>
       <c r="I10" t="n">
-        <v>44.56885947994062</v>
+        <v>44.56885947994073</v>
       </c>
       <c r="J10" t="n">
-        <v>61.44048688419623</v>
+        <v>61.44048688419646</v>
       </c>
       <c r="K10" t="n">
-        <v>219.0025901821211</v>
+        <v>219.0025901821215</v>
       </c>
       <c r="L10" t="n">
-        <v>476.1542702728973</v>
+        <v>476.154270272898</v>
       </c>
       <c r="M10" t="n">
-        <v>757.6737846970664</v>
+        <v>757.6737846970673</v>
       </c>
       <c r="N10" t="n">
-        <v>1037.934010717136</v>
+        <v>1037.934010717137</v>
       </c>
       <c r="O10" t="n">
-        <v>1280.783395364232</v>
+        <v>1280.783395364233</v>
       </c>
       <c r="P10" t="n">
-        <v>1465.062315228544</v>
+        <v>1465.062315228545</v>
       </c>
       <c r="Q10" t="n">
-        <v>1509.212407260173</v>
+        <v>1509.212407260175</v>
       </c>
       <c r="R10" t="n">
-        <v>1401.050132454324</v>
+        <v>1401.050132454326</v>
       </c>
       <c r="S10" t="n">
-        <v>1202.259093758507</v>
+        <v>1401.050132454326</v>
       </c>
       <c r="T10" t="n">
-        <v>1202.259093758507</v>
+        <v>1216.793276686497</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.259093758507</v>
+        <v>1216.793276686497</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.259093758507</v>
+        <v>1216.793276686497</v>
       </c>
       <c r="W10" t="n">
-        <v>1202.259093758507</v>
+        <v>1216.793276686497</v>
       </c>
       <c r="X10" t="n">
-        <v>1202.259093758507</v>
+        <v>988.8037257884802</v>
       </c>
       <c r="Y10" t="n">
-        <v>1202.259093758507</v>
+        <v>768.01114664495</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,10 +5036,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.172981791116</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.097755135313</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,55 +5501,55 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5558,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400744</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C19" t="n">
-        <v>408.9258559154847</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D19" t="n">
-        <v>408.9258559154847</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330918</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330918</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5729,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400744</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121676</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121676</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121676</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121676</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6017,13 +6017,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6032,7 +6032,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532796</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683311</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319346</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656841</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150048</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380732</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400518</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319346</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656841</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150048</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942681</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594057</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400518</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6859,22 +6859,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,13 +7494,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7734,10 +7734,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>14.52032369188566</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58.49750737927786</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923453</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>77.9669619763789</v>
+        <v>77.96696197637777</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839806</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,22 +8295,22 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>97.32166909127238</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>160.5923793105584</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.5948476831971</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.03464551896022</v>
+        <v>30.03464551896009</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219757</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>284.3136214989005</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791781</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>293.0340190902509</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>61.92608729899342</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079613</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>268.1811154905997</v>
+        <v>109.4330205759085</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.4299905145491</v>
       </c>
     </row>
     <row r="3">
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>14.76949867423454</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>147.8879949553846</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>48.44602114292258</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.7129014545667</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.31315520054596</v>
       </c>
       <c r="C19" t="n">
-        <v>63.3683537222839</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392193867</v>
+        <v>5.199738306158679</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.21924749803613</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.260576923615673e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1135876.812414238</v>
+        <v>1135876.812414239</v>
       </c>
     </row>
     <row r="3">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.4555807183</v>
+        <v>16230.45558071831</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="H2" t="n">
         <v>20178.66499225016</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.04424660709</v>
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395179</v>
+        <v>26462.50553395211</v>
       </c>
       <c r="D3" t="n">
-        <v>306862.2516100366</v>
+        <v>306862.2516100378</v>
       </c>
       <c r="E3" t="n">
-        <v>587134.5612140594</v>
+        <v>587134.5612140582</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.10818431354486e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>82172.02877716768</v>
+        <v>82172.02877716761</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.621870944811</v>
+        <v>6152.621870944899</v>
       </c>
       <c r="L3" t="n">
-        <v>74256.10557950946</v>
+        <v>74256.10557950981</v>
       </c>
       <c r="M3" t="n">
-        <v>153409.3705045957</v>
+        <v>153409.3705045954</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162150.7749451693</v>
+        <v>162150.7749451697</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>166332.5883437007</v>
+        <v>166332.5883437003</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,34 +26430,34 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181826</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="I4" t="n">
         <v>12386.92018181815</v>
       </c>
-      <c r="I4" t="n">
-        <v>12386.92018181817</v>
-      </c>
       <c r="J4" t="n">
-        <v>20377.77944491164</v>
+        <v>20377.77944491163</v>
       </c>
       <c r="K4" t="n">
-        <v>20377.77944491166</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="L4" t="n">
         <v>20377.7794449116</v>
       </c>
       <c r="M4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.77944491161</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491162</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="P4" t="n">
         <v>20377.77944491159</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20377.77944491162</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>86377.59206988022</v>
+        <v>86377.59206988034</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-859312.4660789135</v>
+        <v>-859742.0249455024</v>
       </c>
       <c r="C6" t="n">
-        <v>-322001.0293989461</v>
+        <v>-322001.0293989464</v>
       </c>
       <c r="D6" t="n">
-        <v>-539046.3877770104</v>
+        <v>-539046.3877770113</v>
       </c>
       <c r="E6" t="n">
-        <v>-680465.3462275343</v>
+        <v>-680500.0841529688</v>
       </c>
       <c r="F6" t="n">
-        <v>-93330.78501347509</v>
+        <v>-93365.52293891078</v>
       </c>
       <c r="G6" t="n">
-        <v>-93330.78501347532</v>
+        <v>-93365.5229389108</v>
       </c>
       <c r="H6" t="n">
-        <v>-93330.78501347527</v>
+        <v>-93365.52293891083</v>
       </c>
       <c r="I6" t="n">
-        <v>-93330.78501347514</v>
+        <v>-93365.52293891081</v>
       </c>
       <c r="J6" t="n">
-        <v>-185187.8798293876</v>
+        <v>-185187.8798293875</v>
       </c>
       <c r="K6" t="n">
         <v>-109168.4729231648</v>
       </c>
       <c r="L6" t="n">
-        <v>-177271.9566317294</v>
+        <v>-177271.9566317297</v>
       </c>
       <c r="M6" t="n">
-        <v>-256425.2215568157</v>
+        <v>-256425.2215568153</v>
       </c>
       <c r="N6" t="n">
         <v>-103015.8510522199</v>
@@ -26561,7 +26561,7 @@
         <v>-122443.5690458517</v>
       </c>
       <c r="P6" t="n">
-        <v>-103015.85105222</v>
+        <v>-103015.8510522199</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>865.9476543635484</v>
+        <v>865.9476543635493</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>557.1107434992578</v>
+        <v>557.1107434992591</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141341</v>
+        <v>20.57891343141364</v>
       </c>
       <c r="D3" t="n">
-        <v>251.8926405940701</v>
+        <v>251.8926405940711</v>
       </c>
       <c r="E3" t="n">
-        <v>502.0278459781254</v>
+        <v>502.0278459781244</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000129</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="D4" t="n">
-        <v>293.3968634977516</v>
+        <v>293.396863497753</v>
       </c>
       <c r="E4" t="n">
-        <v>615.5975446003906</v>
+        <v>615.5975446003893</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000129</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>293.3968634977516</v>
+        <v>293.396863497753</v>
       </c>
       <c r="M4" t="n">
-        <v>615.5975446003906</v>
+        <v>615.5975446003893</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000129</v>
+        <v>23.90593186000163</v>
       </c>
       <c r="L4" t="n">
-        <v>293.3968634977516</v>
+        <v>293.396863497753</v>
       </c>
       <c r="M4" t="n">
-        <v>615.5975446003906</v>
+        <v>615.5975446003893</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>80.95927027210701</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>81.05985322681335</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941475</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>51.58871642724964</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27594,10 +27594,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.32969518232349</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508615</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>187.431034882095</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>200.5544587481222</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>101.1379383879323</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>228.8431693146202</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.98318562244353</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27825,22 +27825,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>155.8781737858524</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>105.5713861870971</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.8229974313423</v>
+        <v>303.8229974313422</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.26705763130747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.6923020533434</v>
+        <v>129.6923020533433</v>
       </c>
       <c r="T8" t="n">
         <v>207.8569114456331</v>
@@ -27910,13 +27910,13 @@
         <v>251.0671571798</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>116.2670104747399</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.1655101485144</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4809127745796</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.26749052354845</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.0861115167658</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>36.03949432193053</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4294344079671</v>
       </c>
       <c r="H10" t="n">
-        <v>64.6995652587334</v>
+        <v>148.3436183112502</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8031283088588</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2735337307263</v>
+        <v>38.85924652057633</v>
       </c>
       <c r="U10" t="n">
         <v>286.2338541773732</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28801,22 +28801,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.385230391931075e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203986</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.481196600456473</v>
+        <v>3.481196600456477</v>
       </c>
       <c r="H8" t="n">
-        <v>35.65180468442487</v>
+        <v>35.6518046844249</v>
       </c>
       <c r="I8" t="n">
-        <v>134.2088319390983</v>
+        <v>134.2088319390984</v>
       </c>
       <c r="J8" t="n">
-        <v>295.4622099679929</v>
+        <v>295.4622099679932</v>
       </c>
       <c r="K8" t="n">
-        <v>442.8212620653155</v>
+        <v>442.8212620653159</v>
       </c>
       <c r="L8" t="n">
-        <v>549.3589325265353</v>
+        <v>549.3589325265359</v>
       </c>
       <c r="M8" t="n">
-        <v>611.2676625699031</v>
+        <v>611.2676625699038</v>
       </c>
       <c r="N8" t="n">
-        <v>621.1586124109501</v>
+        <v>621.1586124109508</v>
       </c>
       <c r="O8" t="n">
-        <v>586.542463715161</v>
+        <v>586.5424637151617</v>
       </c>
       <c r="P8" t="n">
-        <v>500.6004226413918</v>
+        <v>500.6004226413924</v>
       </c>
       <c r="Q8" t="n">
-        <v>375.9300693875442</v>
+        <v>375.9300693875446</v>
       </c>
       <c r="R8" t="n">
-        <v>218.6757159534241</v>
+        <v>218.6757159534244</v>
       </c>
       <c r="S8" t="n">
-        <v>79.32776753290196</v>
+        <v>79.32776753290204</v>
       </c>
       <c r="T8" t="n">
-        <v>15.23893811849822</v>
+        <v>15.23893811849824</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2784957280365178</v>
+        <v>0.2784957280365181</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.862604388631029</v>
+        <v>1.862604388631031</v>
       </c>
       <c r="H9" t="n">
-        <v>17.98883712177862</v>
+        <v>17.98883712177864</v>
       </c>
       <c r="I9" t="n">
-        <v>64.12914232786656</v>
+        <v>64.12914232786663</v>
       </c>
       <c r="J9" t="n">
-        <v>175.9752681381622</v>
+        <v>175.9752681381624</v>
       </c>
       <c r="K9" t="n">
-        <v>300.7697621764412</v>
+        <v>300.7697621764415</v>
       </c>
       <c r="L9" t="n">
-        <v>404.4220625402592</v>
+        <v>404.4220625402596</v>
       </c>
       <c r="M9" t="n">
-        <v>471.9414716281338</v>
+        <v>471.9414716281343</v>
       </c>
       <c r="N9" t="n">
-        <v>484.4323580764534</v>
+        <v>484.4323580764539</v>
       </c>
       <c r="O9" t="n">
-        <v>443.1609660967869</v>
+        <v>443.1609660967873</v>
       </c>
       <c r="P9" t="n">
-        <v>355.6757450535865</v>
+        <v>355.6757450535869</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.759816345252</v>
+        <v>237.7598163452523</v>
       </c>
       <c r="R9" t="n">
-        <v>115.6448584450037</v>
+        <v>115.6448584450039</v>
       </c>
       <c r="S9" t="n">
-        <v>34.59705958707193</v>
+        <v>34.59705958707197</v>
       </c>
       <c r="T9" t="n">
-        <v>7.507602776982082</v>
+        <v>7.50760277698209</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1225397624099362</v>
+        <v>0.1225397624099363</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.561544950491645</v>
+        <v>1.561544950491646</v>
       </c>
       <c r="H10" t="n">
-        <v>13.88355419618936</v>
+        <v>13.88355419618937</v>
       </c>
       <c r="I10" t="n">
-        <v>46.95991542023965</v>
+        <v>46.9599154202397</v>
       </c>
       <c r="J10" t="n">
-        <v>110.4012279997593</v>
+        <v>110.4012279997594</v>
       </c>
       <c r="K10" t="n">
-        <v>181.4231315207565</v>
+        <v>181.4231315207567</v>
       </c>
       <c r="L10" t="n">
-        <v>232.1591465485487</v>
+        <v>232.159146548549</v>
       </c>
       <c r="M10" t="n">
-        <v>244.7792689211584</v>
+        <v>244.7792689211586</v>
       </c>
       <c r="N10" t="n">
-        <v>238.9589650147806</v>
+        <v>238.9589650147809</v>
       </c>
       <c r="O10" t="n">
-        <v>220.7172808204009</v>
+        <v>220.7172808204011</v>
       </c>
       <c r="P10" t="n">
-        <v>188.8617638303712</v>
+        <v>188.8617638303714</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.7580958088958</v>
+        <v>130.7580958088959</v>
       </c>
       <c r="R10" t="n">
-        <v>70.21273931937883</v>
+        <v>70.21273931937891</v>
       </c>
       <c r="S10" t="n">
-        <v>27.21346972811347</v>
+        <v>27.21346972811349</v>
       </c>
       <c r="T10" t="n">
-        <v>6.672055697555207</v>
+        <v>6.672055697555214</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08517517911772617</v>
+        <v>0.08517517911772625</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.287118509957237</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>239.8079481415049</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472414</v>
+        <v>89.75123316395862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>69.67512249932325</v>
+        <v>69.6751224993221</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>114.4163054413066</v>
+        <v>114.4163054413069</v>
       </c>
       <c r="K8" t="n">
-        <v>222.7314110203349</v>
+        <v>222.7314110203354</v>
       </c>
       <c r="L8" t="n">
-        <v>313.5925175565481</v>
+        <v>313.5925175565487</v>
       </c>
       <c r="M8" t="n">
-        <v>380.9214293426304</v>
+        <v>380.9214293426311</v>
       </c>
       <c r="N8" t="n">
-        <v>391.7455488143592</v>
+        <v>391.7455488143599</v>
       </c>
       <c r="O8" t="n">
-        <v>356.4442522934743</v>
+        <v>356.444252293475</v>
       </c>
       <c r="P8" t="n">
-        <v>269.3674268861222</v>
+        <v>269.3674268861228</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.6243795130947</v>
+        <v>153.6243795130951</v>
       </c>
       <c r="R8" t="n">
-        <v>3.090178139292021</v>
+        <v>3.090178139292249</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>49.13764147149556</v>
+        <v>49.13764147149575</v>
       </c>
       <c r="K9" t="n">
-        <v>162.9283232020822</v>
+        <v>427.3935602146611</v>
       </c>
       <c r="L9" t="n">
-        <v>265.867682760385</v>
+        <v>265.8676827603854</v>
       </c>
       <c r="M9" t="n">
-        <v>329.8074377061155</v>
+        <v>329.807437706116</v>
       </c>
       <c r="N9" t="n">
-        <v>353.0906459931201</v>
+        <v>353.0906459931206</v>
       </c>
       <c r="O9" t="n">
-        <v>300.5647216523424</v>
+        <v>300.5647216523429</v>
       </c>
       <c r="P9" t="n">
-        <v>540.1641062791934</v>
+        <v>382.2937169498151</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.3728899424276</v>
+        <v>97.77804225923077</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.04204788308648</v>
+        <v>17.0420478830866</v>
       </c>
       <c r="K10" t="n">
-        <v>159.1536396948736</v>
+        <v>159.1536396948738</v>
       </c>
       <c r="L10" t="n">
-        <v>259.7491718088648</v>
+        <v>259.7491718088651</v>
       </c>
       <c r="M10" t="n">
-        <v>284.363145882999</v>
+        <v>284.3631458829992</v>
       </c>
       <c r="N10" t="n">
-        <v>283.0911373940093</v>
+        <v>283.0911373940095</v>
       </c>
       <c r="O10" t="n">
-        <v>245.3024087344405</v>
+        <v>245.3024087344408</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1403230952647</v>
+        <v>186.1403230952649</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.59605255720142</v>
+        <v>44.59605255720156</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.557074493085</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.557074493085</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
